--- a/biology/Zoologie/Allactaga_major/Allactaga_major.xlsx
+++ b/biology/Zoologie/Allactaga_major/Allactaga_major.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allactaga major, la grande gerboise, est une espèce de la famille des Dipodidés qui se rencontre dans les steppes dans une vaste partie de l'Eurasie centrale. C'est la plus grande des gerboises.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle évoque un animal composite entre le rat, le lapin (pour ses oreilles assez longues) et le kangourou (pour son mode de déplacement bipède rapide par des sauts), avec une longue queue qui lui sert de balancier. Ses pattes avant, beaucoup plus petites que ses pattes arrière, ne lui servent pas pour la locomotion en surface mais lui sont tout de même très utiles pour manipuler sa nourriture, faire sa toilette et creuser ses terriers, comme pour les autres rongeurs. L'entrée de son terrier est obturée.
-Elle mesure 180 à 260 mm de longueur (tête et corps), avec une queue de 175 à 310 mm,  pour un poids de 200 à 420 g[1]. Elle est de loin la plus grande des gerboises.
+Elle mesure 180 à 260 mm de longueur (tête et corps), avec une queue de 175 à 310 mm,  pour un poids de 200 à 420 g. Elle est de loin la plus grande des gerboises.
 			Représentation ancienne
 			Spécimen naturalisé
 </t>
@@ -545,7 +559,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se rencontre avant tout dans les steppes herbeuses, mais aussi les semi-déserts et jusqu'aux lisières et clairières des forêts, et parfois dans les friches et les pelouses abandonnées des bordures de routes et des champs. Elle évite les champs cultivés. 
 Elle est présente en Ukraine, Russie, Kazakhstan, Chine et au sud jusqu'en Ouzbékistan.
@@ -577,9 +593,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se nourrit des parties vertes des plantes, de graines, de bulbes et occasionnellement d'insectes et de mollusques[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se nourrit des parties vertes des plantes, de graines, de bulbes et occasionnellement d'insectes et de mollusques.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce n'est pas considérée comme étant en danger par l'UICN.
 </t>
